--- a/Python project/Excel project/Year_age.xlsx
+++ b/Python project/Excel project/Year_age.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,16 @@
           <t>0歳</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2013年度</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2006年4/2～2007年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -444,6 +454,16 @@
           <t>1歳</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2014年度</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2007年4/2～2008年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -456,6 +476,16 @@
           <t>2歳</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2015年度</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2008年4/2～2009年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +498,16 @@
           <t>3歳</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2016年度</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2009年4/2～2010年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -480,6 +520,16 @@
           <t>4歳</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2017年度</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2010年4/2～2011年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +542,16 @@
           <t>5歳</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2018年度</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2011年4/2～2012年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +564,16 @@
           <t>6歳</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2019年度</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2012年4/2～2013年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -516,6 +586,16 @@
           <t>7歳</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2013年4/2～2014年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -528,6 +608,16 @@
           <t>8歳</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021年度</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2014年4/2～2015年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -540,6 +630,16 @@
           <t>9歳</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022年度</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2015年4/2～2016年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -552,6 +652,16 @@
           <t>10歳</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023年度</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2016年4/2～2017年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -564,6 +674,16 @@
           <t>11歳</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024年度</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2017年4/2～2018年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -576,6 +696,16 @@
           <t>12歳</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025年度</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2018年4/2～2019年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -588,6 +718,16 @@
           <t>13歳</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2026年度</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2019年4/2～2020年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -600,6 +740,16 @@
           <t>14歳</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2027年度</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2020年4/2～2021年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -612,6 +762,16 @@
           <t>15歳</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2028年度</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2021年4/2～2022年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -624,6 +784,16 @@
           <t>16歳</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2029年度</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2022年4/2～2023年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -636,6 +806,16 @@
           <t>17歳</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2030年度</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023年4/2～2024年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -648,6 +828,16 @@
           <t>18歳</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2031年度</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024年4/2～2025年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -660,6 +850,16 @@
           <t>19歳</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2032年度</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025年4/2～2026年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -672,6 +872,16 @@
           <t>20歳</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2033年度</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026年4/2～2027年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -684,6 +894,16 @@
           <t>21歳</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2034年度</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2027年4/2～2028年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -696,6 +916,16 @@
           <t>22歳</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2035年度</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2028年4/2～2029年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -708,6 +938,16 @@
           <t>23歳</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2036年度</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2029年4/2～2030年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -720,6 +960,16 @@
           <t>24歳</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2037年度</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2030年4/2～2031年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -732,6 +982,16 @@
           <t>25歳</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2038年度</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2031年4/2～2032年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -744,6 +1004,16 @@
           <t>26歳</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2039年度</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2032年4/2～2033年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -756,6 +1026,16 @@
           <t>27歳</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2040年度</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2033年4/2～2034年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -768,6 +1048,16 @@
           <t>28歳</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2041年度</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2034年4/2～2035年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -780,6 +1070,16 @@
           <t>29歳</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2042年度</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2035年4/2～2036年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -792,6 +1092,16 @@
           <t>30歳</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2043年度</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2036年4/2～2037年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -804,6 +1114,16 @@
           <t>31歳</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2044年度</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2037年4/2～2038年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -816,6 +1136,16 @@
           <t>32歳</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2045年度</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2038年4/2～2039年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -828,6 +1158,16 @@
           <t>33歳</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2046年度</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2039年4/2～2040年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -840,6 +1180,16 @@
           <t>34歳</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2047年度</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2040年4/2～2041年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -852,6 +1202,16 @@
           <t>35歳</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2048年度</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2041年4/2～2042年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -864,6 +1224,16 @@
           <t>36歳</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2049年度</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2042年4/2～2043年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -876,6 +1246,16 @@
           <t>37歳</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2050年度</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2043年4/2～2044年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -888,6 +1268,16 @@
           <t>38歳</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2051年度</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2044年4/2～2045年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -900,6 +1290,16 @@
           <t>39歳</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2052年度</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2045年4/2～2046年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -912,6 +1312,16 @@
           <t>40歳</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2053年度</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2046年4/2～2047年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -924,6 +1334,16 @@
           <t>41歳</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2054年度</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2047年4/2～2048年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -936,6 +1356,16 @@
           <t>42歳</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2055年度</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2048年4/2～2049年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -948,6 +1378,16 @@
           <t>43歳</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2056年度</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2049年4/2～2050年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -960,6 +1400,16 @@
           <t>44歳</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2057年度</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2050年4/2～2051年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -972,6 +1422,16 @@
           <t>45歳</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2058年度</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2051年4/2～2052年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -984,6 +1444,16 @@
           <t>46歳</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2059年度</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2052年4/2～2053年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -996,6 +1466,16 @@
           <t>47歳</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2060年度</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2053年4/2～2054年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1008,6 +1488,16 @@
           <t>48歳</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2061年度</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2054年4/2～2055年4/1生まれの人</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1018,6 +1508,16 @@
       <c r="B50" t="inlineStr">
         <is>
           <t>49歳</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2062年度</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2055年4/2～2056年4/1生まれの人</t>
         </is>
       </c>
     </row>
